--- a/excel/yonghui/exportedExcel.xlsx
+++ b/excel/yonghui/exportedExcel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyan\Desktop\NBgupiao\stockapp\client\excel\yonghui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.ou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA540D89-A959-4310-8DEC-0AC4A75F0B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{107E6DBD-9209-4644-A9FD-DC66C43E6B68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09C3F95D-8FDD-4992-B8B5-2B1A5AB78B48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A9C85CD-03F2-4C47-83D3-FF01999AB0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="exportedData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -162,6 +165,12 @@
     <t>债务股本比</t>
   </si>
   <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
     <t>2020-09-30</t>
   </si>
   <si>
@@ -241,12 +250,6 @@
   </si>
   <si>
     <t>2014-03-31</t>
-  </si>
-  <si>
-    <t>2013-12-31</t>
-  </si>
-  <si>
-    <t>2013-09-30</t>
   </si>
   <si>
     <t>--</t>
@@ -358,7 +361,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2E459250-389C-4696-9D09-DA3E5D7767AD}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C1D7E8EE-B3C6-4516-AD57-1F7F49C63B40}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -669,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C9E18F-4F2E-4F9A-AD39-6DD6393FD59B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE58939-A9B5-41C4-BB5B-274830E0F760}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:AD57"/>
   <sheetViews>
@@ -879,91 +882,91 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-2.34</v>
+      </c>
+      <c r="D3" s="8">
         <v>1.75</v>
       </c>
-      <c r="C3" s="8">
+      <c r="E3" s="8">
         <v>2.86</v>
       </c>
-      <c r="D3" s="8">
+      <c r="F3" s="8">
         <v>15.68</v>
       </c>
-      <c r="E3" s="8">
+      <c r="G3" s="8">
         <v>0.25</v>
       </c>
-      <c r="F3" s="8">
+      <c r="H3" s="8">
         <v>1.69</v>
       </c>
-      <c r="G3" s="8">
+      <c r="I3" s="8">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H3" s="8">
+      <c r="J3" s="8">
         <v>11.24</v>
       </c>
-      <c r="I3" s="8">
+      <c r="K3" s="8">
         <v>4.63</v>
       </c>
-      <c r="J3" s="8">
+      <c r="L3" s="8">
         <v>0.84</v>
       </c>
-      <c r="K3" s="8">
+      <c r="M3" s="8">
         <v>1.86</v>
       </c>
-      <c r="L3" s="8">
+      <c r="N3" s="8">
         <v>7.48</v>
       </c>
-      <c r="M3" s="8">
+      <c r="O3" s="8">
         <v>4.24</v>
       </c>
-      <c r="N3" s="8">
+      <c r="P3" s="8">
         <v>3.37</v>
       </c>
-      <c r="O3" s="8">
+      <c r="Q3" s="8">
         <v>3.11</v>
       </c>
-      <c r="P3" s="8">
+      <c r="R3" s="8">
         <v>7.44</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="S3" s="8">
         <v>4.2699999999999996</v>
       </c>
-      <c r="R3" s="8">
+      <c r="T3" s="8">
         <v>1.46</v>
       </c>
-      <c r="S3" s="8">
+      <c r="U3" s="8">
         <v>1.98</v>
       </c>
-      <c r="T3" s="8">
+      <c r="V3" s="8">
         <v>4.72</v>
       </c>
-      <c r="U3" s="8">
+      <c r="W3" s="8">
         <v>0.08</v>
       </c>
-      <c r="V3" s="8">
+      <c r="X3" s="8">
         <v>0.71</v>
       </c>
-      <c r="W3" s="8">
+      <c r="Y3" s="8">
         <v>1.63</v>
       </c>
-      <c r="X3" s="8">
+      <c r="Z3" s="8">
         <v>3.64</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="AA3" s="8">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AB3" s="8">
         <v>1.96</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AC3" s="8">
         <v>1.47</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AD3" s="8">
         <v>3.06</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>1.61</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -971,91 +974,91 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
+        <v>1.73</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-9.39</v>
+      </c>
+      <c r="D4" s="8">
         <v>1.25</v>
       </c>
-      <c r="C4" s="8">
+      <c r="E4" s="8">
         <v>1.05</v>
       </c>
-      <c r="D4" s="8">
+      <c r="F4" s="8">
         <v>12.9</v>
       </c>
-      <c r="E4" s="8">
+      <c r="G4" s="8">
         <v>-2.0699999999999998</v>
       </c>
-      <c r="F4" s="8">
+      <c r="H4" s="8">
         <v>1.06</v>
       </c>
-      <c r="G4" s="8">
+      <c r="I4" s="8">
         <v>1.63</v>
       </c>
-      <c r="H4" s="8">
+      <c r="J4" s="8">
         <v>10</v>
       </c>
-      <c r="I4" s="8">
+      <c r="K4" s="8">
         <v>0.27</v>
       </c>
-      <c r="J4" s="8">
+      <c r="L4" s="8">
         <v>0.44</v>
       </c>
-      <c r="K4" s="8">
+      <c r="M4" s="8">
         <v>0.81</v>
       </c>
-      <c r="L4" s="8">
+      <c r="N4" s="8">
         <v>7.46</v>
       </c>
-      <c r="M4" s="8">
+      <c r="O4" s="8">
         <v>4.07</v>
       </c>
-      <c r="N4" s="8">
+      <c r="P4" s="8">
         <v>3.34</v>
       </c>
-      <c r="O4" s="8">
+      <c r="Q4" s="8">
         <v>3.09</v>
       </c>
-      <c r="P4" s="8">
+      <c r="R4" s="8">
         <v>7.28</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="S4" s="8">
         <v>2.76</v>
       </c>
-      <c r="R4" s="8">
+      <c r="T4" s="8">
         <v>1.5</v>
       </c>
-      <c r="S4" s="8">
+      <c r="U4" s="8">
         <v>1.78</v>
       </c>
-      <c r="T4" s="8">
+      <c r="V4" s="8">
         <v>4.83</v>
       </c>
-      <c r="U4" s="8">
+      <c r="W4" s="8">
         <v>0.51</v>
       </c>
-      <c r="V4" s="8">
+      <c r="X4" s="8">
         <v>1.26</v>
       </c>
-      <c r="W4" s="8">
+      <c r="Y4" s="8">
         <v>1.27</v>
       </c>
-      <c r="X4" s="8">
+      <c r="Z4" s="8">
         <v>3.46</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="AA4" s="8">
         <v>1.76</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AB4" s="8">
         <v>1.45</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AC4" s="8">
         <v>1.21</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AD4" s="8">
         <v>2.65</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>1.48</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>1.42</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1063,91 +1066,91 @@
         <v>3</v>
       </c>
       <c r="B5" s="8">
+        <v>263.33999999999997</v>
+      </c>
+      <c r="C5" s="8">
+        <v>205.29</v>
+      </c>
+      <c r="D5" s="8">
         <v>221.54</v>
       </c>
-      <c r="C5" s="8">
+      <c r="E5" s="8">
         <v>212.59</v>
       </c>
-      <c r="D5" s="8">
+      <c r="F5" s="8">
         <v>292.57</v>
       </c>
-      <c r="E5" s="8">
+      <c r="G5" s="8">
         <v>213.34</v>
       </c>
-      <c r="F5" s="8">
+      <c r="H5" s="8">
         <v>223.67</v>
       </c>
-      <c r="G5" s="8">
+      <c r="I5" s="8">
         <v>189.4</v>
       </c>
-      <c r="H5" s="8">
+      <c r="J5" s="8">
         <v>222.36</v>
       </c>
-      <c r="I5" s="8">
+      <c r="K5" s="8">
         <v>178.24</v>
       </c>
-      <c r="J5" s="8">
+      <c r="L5" s="8">
         <v>182.95</v>
       </c>
-      <c r="K5" s="8">
+      <c r="M5" s="8">
         <v>156.30000000000001</v>
       </c>
-      <c r="L5" s="8">
+      <c r="N5" s="8">
         <v>187.67</v>
       </c>
-      <c r="M5" s="8">
+      <c r="O5" s="8">
         <v>152.83000000000001</v>
       </c>
-      <c r="N5" s="8">
+      <c r="P5" s="8">
         <v>149.91</v>
       </c>
-      <c r="O5" s="8">
+      <c r="Q5" s="8">
         <v>130.55000000000001</v>
       </c>
-      <c r="P5" s="8">
+      <c r="R5" s="8">
         <v>152.61000000000001</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="S5" s="8">
         <v>122.16</v>
       </c>
-      <c r="R5" s="8">
+      <c r="T5" s="8">
         <v>124.97</v>
       </c>
-      <c r="S5" s="8">
+      <c r="U5" s="8">
         <v>111.02</v>
       </c>
-      <c r="T5" s="8">
+      <c r="V5" s="8">
         <v>134.16</v>
       </c>
-      <c r="U5" s="8">
+      <c r="W5" s="8">
         <v>107.01</v>
       </c>
-      <c r="V5" s="8">
+      <c r="X5" s="8">
         <v>106.09</v>
       </c>
-      <c r="W5" s="8">
+      <c r="Y5" s="8">
         <v>96.37</v>
       </c>
-      <c r="X5" s="8">
+      <c r="Z5" s="8">
         <v>111.98</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="AA5" s="8">
         <v>97.82</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AB5" s="8">
         <v>92.42</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AC5" s="8">
         <v>83.64</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AD5" s="8">
         <v>93.39</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>85.29</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>76.010000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1155,91 +1158,91 @@
         <v>4</v>
       </c>
       <c r="B6" s="8">
+        <v>14.38</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="8">
         <v>10.37</v>
       </c>
-      <c r="C6" s="8">
+      <c r="E6" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D6" s="8">
+      <c r="F6" s="8">
         <v>42.13</v>
       </c>
-      <c r="E6" s="8">
+      <c r="G6" s="8">
         <v>-18.670000000000002</v>
       </c>
-      <c r="F6" s="8">
+      <c r="H6" s="8">
         <v>2.83</v>
       </c>
-      <c r="G6" s="8">
+      <c r="I6" s="8">
         <v>3.82</v>
       </c>
-      <c r="H6" s="8">
+      <c r="J6" s="8">
         <v>16.18</v>
       </c>
-      <c r="I6" s="8">
+      <c r="K6" s="8">
         <v>-6.31</v>
       </c>
-      <c r="J6" s="8">
+      <c r="L6" s="8">
         <v>10.84</v>
       </c>
-      <c r="K6" s="8">
+      <c r="M6" s="8">
         <v>-2.11</v>
       </c>
-      <c r="L6" s="8">
+      <c r="N6" s="8">
         <v>15.19</v>
       </c>
-      <c r="M6" s="8">
+      <c r="O6" s="8">
         <v>-4.83</v>
       </c>
-      <c r="N6" s="8">
+      <c r="P6" s="8">
         <v>5.25</v>
       </c>
-      <c r="O6" s="8">
+      <c r="Q6" s="8">
         <v>17.04</v>
       </c>
-      <c r="P6" s="8">
+      <c r="R6" s="8">
         <v>9.02</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="S6" s="8">
         <v>-4.43</v>
       </c>
-      <c r="R6" s="8">
+      <c r="T6" s="8">
         <v>11.24</v>
       </c>
-      <c r="S6" s="8">
+      <c r="U6" s="8">
         <v>-0.78</v>
       </c>
-      <c r="T6" s="8">
+      <c r="V6" s="8">
         <v>13.25</v>
       </c>
-      <c r="U6" s="8">
+      <c r="W6" s="8">
         <v>-0.53</v>
       </c>
-      <c r="V6" s="8">
+      <c r="X6" s="8">
         <v>6.1</v>
       </c>
-      <c r="W6" s="8">
+      <c r="Y6" s="8">
         <v>-3.59</v>
       </c>
-      <c r="X6" s="8">
+      <c r="Z6" s="8">
         <v>13.41</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="AA6" s="8">
         <v>7.4</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AB6" s="8">
         <v>6.77</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AC6" s="8">
         <v>-2.72</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AD6" s="8">
         <v>8.7200000000000006</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>3.93</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1247,91 +1250,91 @@
         <v>5</v>
       </c>
       <c r="B7" s="8">
+        <v>7.51</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3.44</v>
+      </c>
+      <c r="D7" s="8">
         <v>5.69</v>
       </c>
-      <c r="C7" s="8">
+      <c r="E7" s="8">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D7" s="8">
+      <c r="F7" s="8">
         <v>7.46</v>
       </c>
-      <c r="E7" s="8">
+      <c r="G7" s="8">
         <v>9.9700000000000006</v>
       </c>
-      <c r="F7" s="8">
+      <c r="H7" s="8">
         <v>8.9</v>
       </c>
-      <c r="G7" s="8">
+      <c r="I7" s="8">
         <v>6.05</v>
       </c>
-      <c r="H7" s="8">
+      <c r="J7" s="8">
         <v>6.17</v>
       </c>
-      <c r="I7" s="8">
+      <c r="K7" s="8">
         <v>7.69</v>
       </c>
-      <c r="J7" s="8">
+      <c r="L7" s="8">
         <v>8.7799999999999994</v>
       </c>
-      <c r="K7" s="8">
+      <c r="M7" s="8">
         <v>4.7300000000000004</v>
       </c>
-      <c r="L7" s="8">
+      <c r="N7" s="8">
         <v>9.09</v>
       </c>
-      <c r="M7" s="8">
+      <c r="O7" s="8">
         <v>5.72</v>
       </c>
-      <c r="N7" s="8">
+      <c r="P7" s="8">
         <v>0.72</v>
       </c>
-      <c r="O7" s="8">
+      <c r="Q7" s="8">
         <v>11.85</v>
       </c>
-      <c r="P7" s="8">
+      <c r="R7" s="8">
         <v>4.26</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="S7" s="8">
         <v>4.22</v>
       </c>
-      <c r="R7" s="8">
+      <c r="T7" s="8">
         <v>2.1800000000000002</v>
       </c>
-      <c r="S7" s="8">
+      <c r="U7" s="8">
         <v>4.72</v>
       </c>
-      <c r="T7" s="8">
+      <c r="V7" s="8">
         <v>3.28</v>
       </c>
-      <c r="U7" s="8">
+      <c r="W7" s="8">
         <v>6.06</v>
       </c>
-      <c r="V7" s="8">
+      <c r="X7" s="8">
         <v>1.24</v>
       </c>
-      <c r="W7" s="8">
+      <c r="Y7" s="8">
         <v>0.7</v>
       </c>
-      <c r="X7" s="8">
+      <c r="Z7" s="8">
         <v>5.12</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="AA7" s="8">
         <v>5.61</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="AB7" s="8">
         <v>2.56</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AC7" s="8">
         <v>1.72</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AD7" s="8">
         <v>2.09</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>5.03</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>1.32</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1339,82 +1342,82 @@
         <v>6</v>
       </c>
       <c r="B8" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D8" s="8">
         <v>0.01</v>
       </c>
       <c r="E8" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="8">
         <v>0.05</v>
       </c>
-      <c r="F8" s="8">
+      <c r="H8" s="8">
         <v>0.05</v>
       </c>
-      <c r="G8" s="8">
+      <c r="I8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="8">
+      <c r="J8" s="8">
         <v>0.01</v>
       </c>
-      <c r="I8" s="8">
+      <c r="K8" s="8">
         <v>-0.03</v>
       </c>
-      <c r="J8" s="8">
+      <c r="L8" s="8">
         <v>0.02</v>
       </c>
-      <c r="K8" s="8">
+      <c r="M8" s="8">
         <v>0</v>
       </c>
-      <c r="L8" s="8">
+      <c r="N8" s="8">
         <v>0.06</v>
       </c>
-      <c r="M8" s="8">
+      <c r="O8" s="8">
         <v>-0.02</v>
       </c>
-      <c r="N8" s="8">
+      <c r="P8" s="8">
         <v>0.02</v>
       </c>
-      <c r="O8" s="8">
+      <c r="Q8" s="8">
         <v>0.01</v>
       </c>
-      <c r="P8" s="8">
+      <c r="R8" s="8">
         <v>0.03</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="S8" s="8">
         <v>-0.01</v>
       </c>
-      <c r="R8" s="8">
+      <c r="T8" s="8">
         <v>0.02</v>
       </c>
-      <c r="S8" s="8">
+      <c r="U8" s="8">
         <v>0.02</v>
       </c>
-      <c r="T8" s="8">
+      <c r="V8" s="8">
         <v>0.01</v>
       </c>
-      <c r="U8" s="8">
+      <c r="W8" s="8">
         <v>-0.05</v>
       </c>
-      <c r="V8" s="8">
+      <c r="X8" s="8">
         <v>0</v>
       </c>
-      <c r="W8" s="8">
+      <c r="Y8" s="8">
         <v>0.06</v>
       </c>
-      <c r="X8" s="8">
+      <c r="Z8" s="8">
         <v>0.02</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="AA8" s="8">
         <v>0.01</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0</v>
       </c>
       <c r="AB8" s="8">
         <v>0</v>
@@ -1431,91 +1434,91 @@
         <v>7</v>
       </c>
       <c r="B9" s="8">
+        <v>-10.66</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-0.75</v>
+      </c>
+      <c r="D9" s="8">
         <v>-7.87</v>
       </c>
-      <c r="C9" s="8">
+      <c r="E9" s="8">
         <v>-1.78</v>
       </c>
-      <c r="D9" s="8">
+      <c r="F9" s="8">
         <v>-11.32</v>
       </c>
-      <c r="E9" s="8">
+      <c r="G9" s="8">
         <v>-12.98</v>
       </c>
-      <c r="F9" s="8">
+      <c r="H9" s="8">
         <v>-10.130000000000001</v>
       </c>
-      <c r="G9" s="8">
+      <c r="I9" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H9" s="8">
+      <c r="J9" s="8">
         <v>-22.04</v>
       </c>
-      <c r="I9" s="8">
+      <c r="K9" s="8">
         <v>-4.79</v>
       </c>
-      <c r="J9" s="8">
+      <c r="L9" s="8">
         <v>-33.97</v>
       </c>
-      <c r="K9" s="8">
+      <c r="M9" s="8">
         <v>-8.14</v>
       </c>
-      <c r="L9" s="8">
+      <c r="N9" s="8">
         <v>10.220000000000001</v>
       </c>
-      <c r="M9" s="8">
+      <c r="O9" s="8">
         <v>-10.199999999999999</v>
       </c>
-      <c r="N9" s="8">
+      <c r="P9" s="8">
         <v>6.99</v>
       </c>
-      <c r="O9" s="8">
+      <c r="Q9" s="8">
         <v>-31.42</v>
       </c>
-      <c r="P9" s="8">
+      <c r="R9" s="8">
         <v>-23.26</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="S9" s="8">
         <v>-28.32</v>
       </c>
-      <c r="R9" s="8">
+      <c r="T9" s="8">
         <v>-12.21</v>
       </c>
-      <c r="S9" s="8">
+      <c r="U9" s="8">
         <v>4.96</v>
       </c>
-      <c r="T9" s="8">
+      <c r="V9" s="8">
         <v>-3.27</v>
       </c>
-      <c r="U9" s="8">
+      <c r="W9" s="8">
         <v>-16.45</v>
       </c>
-      <c r="V9" s="8">
+      <c r="X9" s="8">
         <v>-6.6</v>
       </c>
-      <c r="W9" s="8">
+      <c r="Y9" s="8">
         <v>-2.52</v>
       </c>
-      <c r="X9" s="8">
+      <c r="Z9" s="8">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="AA9" s="8">
         <v>-6.72</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AB9" s="8">
         <v>-3.13</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AC9" s="8">
         <v>-3.05</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AD9" s="8">
         <v>-6.63</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>-6.52</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>-1.02</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -1523,91 +1526,91 @@
         <v>8</v>
       </c>
       <c r="B10" s="8">
+        <v>-6.59</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D10" s="8">
         <v>-8.51</v>
       </c>
-      <c r="C10" s="8">
+      <c r="E10" s="8">
         <v>0.69</v>
       </c>
-      <c r="D10" s="8">
+      <c r="F10" s="8">
         <v>9.16</v>
       </c>
-      <c r="E10" s="8">
+      <c r="G10" s="8">
         <v>36.200000000000003</v>
       </c>
-      <c r="F10" s="8">
+      <c r="H10" s="8">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G10" s="8">
+      <c r="I10" s="8">
         <v>10.029999999999999</v>
       </c>
-      <c r="H10" s="8">
+      <c r="J10" s="8">
         <v>11.61</v>
       </c>
-      <c r="I10" s="8">
+      <c r="K10" s="8">
         <v>0.85</v>
       </c>
-      <c r="J10" s="8">
+      <c r="L10" s="8">
         <v>34.26</v>
       </c>
-      <c r="K10" s="8">
+      <c r="M10" s="8">
         <v>0.21</v>
       </c>
-      <c r="L10" s="8">
+      <c r="N10" s="8">
         <v>-12.27</v>
       </c>
-      <c r="M10" s="8">
+      <c r="O10" s="8">
         <v>0.42</v>
       </c>
-      <c r="N10" s="8">
+      <c r="P10" s="8">
         <v>-4.99</v>
       </c>
-      <c r="O10" s="8">
+      <c r="Q10" s="8">
         <v>-10.130000000000001</v>
       </c>
-      <c r="P10" s="8">
+      <c r="R10" s="8">
         <v>8.39</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>0</v>
-      </c>
-      <c r="R10" s="8">
-        <v>63.56</v>
       </c>
       <c r="S10" s="8">
         <v>0</v>
       </c>
       <c r="T10" s="8">
+        <v>63.56</v>
+      </c>
+      <c r="U10" s="8">
         <v>0</v>
       </c>
-      <c r="U10" s="8">
+      <c r="V10" s="8">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8">
         <v>-5.16</v>
       </c>
-      <c r="V10" s="8">
+      <c r="X10" s="8">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="W10" s="8">
+      <c r="Y10" s="8">
         <v>-8.36</v>
       </c>
-      <c r="X10" s="8">
+      <c r="Z10" s="8">
         <v>51.06</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="AA10" s="8">
         <v>0.49</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AB10" s="8">
         <v>-3.31</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AC10" s="8">
         <v>3.68</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AD10" s="8">
         <v>0.16</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>2.64</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>2.14</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -1615,91 +1618,91 @@
         <v>9</v>
       </c>
       <c r="B11" s="8">
+        <v>210.15</v>
+      </c>
+      <c r="C11" s="8">
+        <v>166.31</v>
+      </c>
+      <c r="D11" s="8">
         <v>174.34</v>
       </c>
-      <c r="C11" s="8">
+      <c r="E11" s="8">
         <v>166.41</v>
       </c>
-      <c r="D11" s="8">
+      <c r="F11" s="8">
         <v>225.75</v>
       </c>
-      <c r="E11" s="8">
+      <c r="G11" s="8">
         <v>169.34</v>
       </c>
-      <c r="F11" s="8">
+      <c r="H11" s="8">
         <v>174.55</v>
       </c>
-      <c r="G11" s="8">
+      <c r="I11" s="8">
         <v>149.99</v>
       </c>
-      <c r="H11" s="8">
+      <c r="J11" s="8">
         <v>171.85</v>
       </c>
-      <c r="I11" s="8">
+      <c r="K11" s="8">
         <v>137.09</v>
       </c>
-      <c r="J11" s="8">
+      <c r="L11" s="8">
         <v>145.04</v>
       </c>
-      <c r="K11" s="8">
+      <c r="M11" s="8">
         <v>121.97</v>
       </c>
-      <c r="L11" s="8">
+      <c r="N11" s="8">
         <v>144.9</v>
       </c>
-      <c r="M11" s="8">
+      <c r="O11" s="8">
         <v>118.72</v>
       </c>
-      <c r="N11" s="8">
+      <c r="P11" s="8">
         <v>119.83</v>
       </c>
-      <c r="O11" s="8">
+      <c r="Q11" s="8">
         <v>104.61</v>
       </c>
-      <c r="P11" s="8">
+      <c r="R11" s="8">
         <v>120.67</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="S11" s="8">
         <v>96.93</v>
       </c>
-      <c r="R11" s="8">
+      <c r="T11" s="8">
         <v>100.37</v>
       </c>
-      <c r="S11" s="8">
+      <c r="U11" s="8">
         <v>88.92</v>
       </c>
-      <c r="T11" s="8">
+      <c r="V11" s="8">
         <v>106.69</v>
       </c>
-      <c r="U11" s="8">
+      <c r="W11" s="8">
         <v>85.34</v>
       </c>
-      <c r="V11" s="8">
+      <c r="X11" s="8">
         <v>85.58</v>
       </c>
-      <c r="W11" s="8">
+      <c r="Y11" s="8">
         <v>77.23</v>
       </c>
-      <c r="X11" s="8">
+      <c r="Z11" s="8">
         <v>89.71</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="AA11" s="8">
         <v>77.569999999999993</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="AB11" s="8">
         <v>74.87</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AC11" s="8">
         <v>67.3</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AD11" s="8">
         <v>75.33</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>69.13</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>61.46</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -1707,91 +1710,91 @@
         <v>10</v>
       </c>
       <c r="B12" s="8">
+        <v>41.02</v>
+      </c>
+      <c r="C12" s="8">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="D12" s="8">
         <v>38.85</v>
       </c>
-      <c r="C12" s="8">
+      <c r="E12" s="8">
         <v>36.700000000000003</v>
       </c>
-      <c r="D12" s="8">
+      <c r="F12" s="8">
         <v>42.1</v>
       </c>
-      <c r="E12" s="8">
+      <c r="G12" s="8">
         <v>37.950000000000003</v>
       </c>
-      <c r="F12" s="8">
+      <c r="H12" s="8">
         <v>37.32</v>
       </c>
-      <c r="G12" s="8">
+      <c r="I12" s="8">
         <v>30.98</v>
       </c>
-      <c r="H12" s="8">
+      <c r="J12" s="8">
         <v>31.58</v>
       </c>
-      <c r="I12" s="8">
+      <c r="K12" s="8">
         <v>31.54</v>
       </c>
-      <c r="J12" s="8">
+      <c r="L12" s="8">
         <v>29.34</v>
       </c>
-      <c r="K12" s="8">
+      <c r="M12" s="8">
         <v>27.54</v>
       </c>
-      <c r="L12" s="8">
+      <c r="N12" s="8">
         <v>27.18</v>
       </c>
-      <c r="M12" s="8">
+      <c r="O12" s="8">
         <v>24.63</v>
       </c>
-      <c r="N12" s="8">
+      <c r="P12" s="8">
         <v>21.88</v>
       </c>
-      <c r="O12" s="8">
+      <c r="Q12" s="8">
         <v>18.41</v>
       </c>
-      <c r="P12" s="8">
+      <c r="R12" s="8">
         <v>19.600000000000001</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="S12" s="8">
         <v>17.82</v>
       </c>
-      <c r="R12" s="8">
+      <c r="T12" s="8">
         <v>18.489999999999998</v>
       </c>
-      <c r="S12" s="8">
+      <c r="U12" s="8">
         <v>16.61</v>
       </c>
-      <c r="T12" s="8">
+      <c r="V12" s="8">
         <v>18.73</v>
       </c>
-      <c r="U12" s="8">
+      <c r="W12" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="V12" s="8">
+      <c r="X12" s="8">
         <v>16.309999999999999</v>
       </c>
-      <c r="W12" s="8">
+      <c r="Y12" s="8">
         <v>15.16</v>
       </c>
-      <c r="X12" s="8">
+      <c r="Z12" s="8">
         <v>15.4</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="AA12" s="8">
         <v>14.99</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AB12" s="8">
         <v>13.12</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AC12" s="8">
         <v>12.48</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AD12" s="8">
         <v>12.05</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>11.84</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>10.58</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -1799,91 +1802,91 @@
         <v>11</v>
       </c>
       <c r="B13" s="8">
+        <v>6.36</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5.52</v>
+      </c>
+      <c r="D13" s="8">
         <v>5.62</v>
       </c>
-      <c r="C13" s="8">
+      <c r="E13" s="8">
         <v>6.01</v>
       </c>
-      <c r="D13" s="8">
+      <c r="F13" s="8">
         <v>5.77</v>
       </c>
-      <c r="E13" s="8">
+      <c r="G13" s="8">
         <v>1.8</v>
       </c>
-      <c r="F13" s="8">
+      <c r="H13" s="8">
         <v>7.39</v>
       </c>
-      <c r="G13" s="8">
+      <c r="I13" s="8">
         <v>6.17</v>
       </c>
-      <c r="H13" s="8">
+      <c r="J13" s="8">
         <v>4.78</v>
       </c>
-      <c r="I13" s="8">
+      <c r="K13" s="8">
         <v>7.72</v>
       </c>
-      <c r="J13" s="8">
+      <c r="L13" s="8">
         <v>8.4499999999999993</v>
       </c>
-      <c r="K13" s="8">
+      <c r="M13" s="8">
         <v>7.04</v>
       </c>
-      <c r="L13" s="8">
+      <c r="N13" s="8">
         <v>6.85</v>
       </c>
-      <c r="M13" s="8">
+      <c r="O13" s="8">
         <v>5.13</v>
       </c>
-      <c r="N13" s="8">
+      <c r="P13" s="8">
         <v>4.78</v>
       </c>
-      <c r="O13" s="8">
+      <c r="Q13" s="8">
         <v>4.57</v>
       </c>
-      <c r="P13" s="8">
+      <c r="R13" s="8">
         <v>3.33</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="S13" s="8">
         <v>4.34</v>
       </c>
-      <c r="R13" s="8">
+      <c r="T13" s="8">
         <v>3.42</v>
       </c>
-      <c r="S13" s="8">
+      <c r="U13" s="8">
         <v>2.5499999999999998</v>
       </c>
-      <c r="T13" s="8">
+      <c r="V13" s="8">
         <v>2.57</v>
       </c>
-      <c r="U13" s="8">
+      <c r="W13" s="8">
         <v>3.11</v>
       </c>
-      <c r="V13" s="8">
+      <c r="X13" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="W13" s="8">
+      <c r="Y13" s="8">
         <v>2.08</v>
       </c>
-      <c r="X13" s="8">
+      <c r="Z13" s="8">
         <v>2.08</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="AA13" s="8">
         <v>2.57</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="AB13" s="8">
         <v>1.83</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AC13" s="8">
         <v>1.83</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AD13" s="8">
         <v>2.0499999999999998</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>1.7</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -1983,91 +1986,91 @@
         <v>13</v>
       </c>
       <c r="B15" s="8">
+        <v>3.89</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="D15" s="8">
         <v>0.16</v>
       </c>
-      <c r="C15" s="8">
+      <c r="E15" s="8">
         <v>0.91</v>
       </c>
-      <c r="D15" s="8">
+      <c r="F15" s="8">
         <v>0.85</v>
       </c>
-      <c r="E15" s="8">
+      <c r="G15" s="8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F15" s="8">
+      <c r="H15" s="8">
         <v>0.86</v>
       </c>
-      <c r="G15" s="8">
+      <c r="I15" s="8">
         <v>0.9</v>
       </c>
-      <c r="H15" s="8">
+      <c r="J15" s="8">
         <v>0.61</v>
       </c>
-      <c r="I15" s="8">
+      <c r="K15" s="8">
         <v>0.89</v>
       </c>
-      <c r="J15" s="8">
+      <c r="L15" s="8">
         <v>0.13</v>
       </c>
-      <c r="K15" s="8">
+      <c r="M15" s="8">
         <v>0.16</v>
       </c>
-      <c r="L15" s="8">
+      <c r="N15" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M15" s="8">
+      <c r="O15" s="8">
         <v>0.37</v>
       </c>
-      <c r="N15" s="8">
+      <c r="P15" s="8">
         <v>-0.39</v>
       </c>
-      <c r="O15" s="8">
+      <c r="Q15" s="8">
         <v>-0.6</v>
       </c>
-      <c r="P15" s="8">
+      <c r="R15" s="8">
         <v>-0.2</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="S15" s="8">
         <v>-0.43</v>
       </c>
-      <c r="R15" s="8">
+      <c r="T15" s="8">
         <v>-0.24</v>
       </c>
-      <c r="S15" s="8">
+      <c r="U15" s="8">
         <v>0.04</v>
       </c>
-      <c r="T15" s="8">
+      <c r="V15" s="8">
         <v>-0.11</v>
       </c>
-      <c r="U15" s="8">
+      <c r="W15" s="8">
         <v>-0.22</v>
       </c>
-      <c r="V15" s="8">
+      <c r="X15" s="8">
         <v>-0.25</v>
       </c>
-      <c r="W15" s="8">
+      <c r="Y15" s="8">
         <v>-0.02</v>
       </c>
-      <c r="X15" s="8">
+      <c r="Z15" s="8">
         <v>0.25</v>
-      </c>
-      <c r="Y15" s="8">
-        <v>0.23</v>
-      </c>
-      <c r="Z15" s="8">
-        <v>0.3</v>
       </c>
       <c r="AA15" s="8">
         <v>0.23</v>
       </c>
       <c r="AB15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="AD15" s="8">
         <v>0.28000000000000003</v>
-      </c>
-      <c r="AC15" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AD15" s="8">
-        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -2075,91 +2078,91 @@
         <v>14</v>
       </c>
       <c r="B16" s="8">
+        <v>-1.66</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-1.03</v>
+      </c>
+      <c r="D16" s="8">
         <v>1.92</v>
       </c>
-      <c r="C16" s="8">
+      <c r="E16" s="8">
         <v>2.84</v>
       </c>
-      <c r="D16" s="8">
+      <c r="F16" s="8">
         <v>19.12</v>
       </c>
-      <c r="E16" s="8">
+      <c r="G16" s="8">
         <v>-0.24</v>
       </c>
-      <c r="F16" s="8">
+      <c r="H16" s="8">
         <v>1.8</v>
       </c>
-      <c r="G16" s="8">
+      <c r="I16" s="8">
         <v>1.58</v>
       </c>
-      <c r="H16" s="8">
+      <c r="J16" s="8">
         <v>13.25</v>
       </c>
-      <c r="I16" s="8">
+      <c r="K16" s="8">
         <v>3.61</v>
       </c>
-      <c r="J16" s="8">
+      <c r="L16" s="8">
         <v>-0.35</v>
       </c>
-      <c r="K16" s="8">
+      <c r="M16" s="8">
         <v>1.18</v>
       </c>
-      <c r="L16" s="8">
+      <c r="N16" s="8">
         <v>8.2100000000000009</v>
       </c>
-      <c r="M16" s="8">
+      <c r="O16" s="8">
         <v>4.09</v>
       </c>
-      <c r="N16" s="8">
+      <c r="P16" s="8">
         <v>3.29</v>
       </c>
-      <c r="O16" s="8">
+      <c r="Q16" s="8">
         <v>3.3</v>
       </c>
-      <c r="P16" s="8">
+      <c r="R16" s="8">
         <v>8.73</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="S16" s="8">
         <v>4.67</v>
       </c>
-      <c r="R16" s="8">
+      <c r="T16" s="8">
         <v>1.91</v>
       </c>
-      <c r="S16" s="8">
+      <c r="U16" s="8">
         <v>2.37</v>
       </c>
-      <c r="T16" s="8">
+      <c r="V16" s="8">
         <v>5.52</v>
       </c>
-      <c r="U16" s="8">
+      <c r="W16" s="8">
         <v>0.85</v>
       </c>
-      <c r="V16" s="8">
+      <c r="X16" s="8">
         <v>0.89</v>
       </c>
-      <c r="W16" s="8">
+      <c r="Y16" s="8">
         <v>1.66</v>
       </c>
-      <c r="X16" s="8">
+      <c r="Z16" s="8">
         <v>4.2</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="AA16" s="8">
         <v>2.27</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="AB16" s="8">
         <v>2.6</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AC16" s="8">
         <v>1.87</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AD16" s="8">
         <v>3.81</v>
-      </c>
-      <c r="AC16" s="8">
-        <v>2.11</v>
-      </c>
-      <c r="AD16" s="8">
-        <v>1.71</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -2170,43 +2173,43 @@
         <v>0</v>
       </c>
       <c r="B19" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="11">
         <v>2019</v>
       </c>
-      <c r="C19" s="11">
+      <c r="D19" s="11">
         <v>2018</v>
       </c>
-      <c r="D19" s="11">
+      <c r="E19" s="11">
         <v>2017</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <v>2016</v>
       </c>
-      <c r="F19" s="11">
+      <c r="G19" s="11">
         <v>2015</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H19" s="11">
         <v>2014</v>
       </c>
-      <c r="H19" s="11">
+      <c r="I19" s="11">
         <v>2013</v>
       </c>
-      <c r="I19" s="11">
+      <c r="J19" s="11">
         <v>2012</v>
       </c>
-      <c r="J19" s="11">
+      <c r="K19" s="11">
         <v>2011</v>
       </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11">
         <v>2010</v>
       </c>
-      <c r="L19" s="11">
+      <c r="M19" s="11">
         <v>2009</v>
       </c>
-      <c r="M19" s="11">
+      <c r="N19" s="11">
         <v>2008</v>
-      </c>
-      <c r="N19" s="11">
-        <v>2007</v>
       </c>
       <c r="O19" s="11" t="e">
         <v>#REF!</v>
@@ -2262,43 +2265,43 @@
         <v>15</v>
       </c>
       <c r="B20" s="8">
+        <v>120.05</v>
+      </c>
+      <c r="C20" s="8">
         <v>71.290000000000006</v>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="8">
         <v>47.33</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>46.08</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <v>80.97</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <v>42.94</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="8">
         <v>20.93</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="8">
         <v>18.96</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>13.99</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K20" s="8">
         <v>20.190000000000001</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>26.41</v>
       </c>
-      <c r="L20" s="8">
+      <c r="M20" s="8">
         <v>5.35</v>
       </c>
-      <c r="M20" s="8">
+      <c r="N20" s="8">
         <v>4.76</v>
-      </c>
-      <c r="N20" s="8">
-        <v>1.84</v>
       </c>
       <c r="O20" s="8" t="e">
         <v>#REF!</v>
@@ -2354,43 +2357,43 @@
         <v>16</v>
       </c>
       <c r="B21" s="8">
+        <v>331.78</v>
+      </c>
+      <c r="C21" s="8">
         <v>310.66000000000003</v>
       </c>
-      <c r="C21" s="8">
+      <c r="D21" s="8">
         <v>239.53</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="8">
         <v>203.37</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="8">
         <v>205.66</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="8">
         <v>119.3</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="8">
         <v>82.5</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>74.989999999999995</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>62.77</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>59.85</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <v>46.83</v>
       </c>
-      <c r="L21" s="8">
+      <c r="M21" s="8">
         <v>19.78</v>
       </c>
-      <c r="M21" s="8">
+      <c r="N21" s="8">
         <v>12.99</v>
-      </c>
-      <c r="N21" s="8">
-        <v>6.22</v>
       </c>
       <c r="O21" s="8" t="e">
         <v>#REF!</v>
@@ -2446,43 +2449,43 @@
         <v>17</v>
       </c>
       <c r="B22" s="8">
+        <v>53.1</v>
+      </c>
+      <c r="C22" s="8">
         <v>51.28</v>
       </c>
-      <c r="C22" s="8">
+      <c r="D22" s="8">
         <v>45.12</v>
       </c>
-      <c r="D22" s="8">
+      <c r="E22" s="8">
         <v>36.76</v>
       </c>
-      <c r="E22" s="8">
+      <c r="F22" s="8">
         <v>31.09</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>30.08</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="8">
         <v>27.17</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>23.57</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <v>20.68</v>
       </c>
-      <c r="J22" s="8">
+      <c r="K22" s="8">
         <v>15.4</v>
       </c>
-      <c r="K22" s="8">
+      <c r="L22" s="8">
         <v>8.2200000000000006</v>
       </c>
-      <c r="L22" s="8">
+      <c r="M22" s="8">
         <v>5.38</v>
       </c>
-      <c r="M22" s="8">
+      <c r="N22" s="8">
         <v>2.88</v>
-      </c>
-      <c r="N22" s="8">
-        <v>1.83</v>
       </c>
       <c r="O22" s="8" t="e">
         <v>#REF!</v>
@@ -2538,43 +2541,43 @@
         <v>18</v>
       </c>
       <c r="B23" s="8">
+        <v>229.79</v>
+      </c>
+      <c r="C23" s="8">
         <v>212.87</v>
       </c>
-      <c r="C23" s="8">
+      <c r="D23" s="8">
         <v>156.74</v>
       </c>
-      <c r="D23" s="8">
+      <c r="E23" s="8">
         <v>125.34</v>
       </c>
-      <c r="E23" s="8">
+      <c r="F23" s="8">
         <v>88.72</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="8">
         <v>83.74</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="8">
         <v>72.290000000000006</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>54.73</v>
       </c>
-      <c r="I23" s="8">
+      <c r="J23" s="8">
         <v>46.3</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>34.82</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>20.07</v>
       </c>
-      <c r="L23" s="8">
+      <c r="M23" s="8">
         <v>11.9</v>
       </c>
-      <c r="M23" s="8">
+      <c r="N23" s="8">
         <v>5.26</v>
-      </c>
-      <c r="N23" s="8">
-        <v>3.18</v>
       </c>
       <c r="O23" s="8" t="e">
         <v>#REF!</v>
@@ -2630,43 +2633,43 @@
         <v>19</v>
       </c>
       <c r="B24" s="8">
+        <v>561.58000000000004</v>
+      </c>
+      <c r="C24" s="8">
         <v>523.53</v>
       </c>
-      <c r="C24" s="8">
+      <c r="D24" s="8">
         <v>396.27</v>
       </c>
-      <c r="D24" s="8">
+      <c r="E24" s="8">
         <v>328.7</v>
       </c>
-      <c r="E24" s="8">
+      <c r="F24" s="8">
         <v>294.38</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <v>203.04</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="8">
         <v>154.80000000000001</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I24" s="8">
         <v>129.72999999999999</v>
       </c>
-      <c r="I24" s="8">
+      <c r="J24" s="8">
         <v>109.07</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>94.67</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="8">
         <v>66.91</v>
       </c>
-      <c r="L24" s="8">
+      <c r="M24" s="8">
         <v>31.68</v>
       </c>
-      <c r="M24" s="8">
+      <c r="N24" s="8">
         <v>18.25</v>
-      </c>
-      <c r="N24" s="8">
-        <v>9.4</v>
       </c>
       <c r="O24" s="8" t="e">
         <v>#REF!</v>
@@ -2722,43 +2725,43 @@
         <v>20</v>
       </c>
       <c r="B25" s="8">
+        <v>348.93</v>
+      </c>
+      <c r="C25" s="8">
         <v>314.87</v>
       </c>
-      <c r="C25" s="8">
+      <c r="D25" s="8">
         <v>199.51</v>
       </c>
-      <c r="D25" s="8">
+      <c r="E25" s="8">
         <v>123.11</v>
       </c>
-      <c r="E25" s="8">
+      <c r="F25" s="8">
         <v>100.49</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>79.290000000000006</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="8">
         <v>88.93</v>
       </c>
-      <c r="H25" s="8">
+      <c r="I25" s="8">
         <v>69.34</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J25" s="8">
         <v>64.08</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <v>52.14</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <v>25.78</v>
       </c>
-      <c r="L25" s="8">
+      <c r="M25" s="8">
         <v>19.39</v>
       </c>
-      <c r="M25" s="8">
+      <c r="N25" s="8">
         <v>10.029999999999999</v>
-      </c>
-      <c r="N25" s="8">
-        <v>5.03</v>
       </c>
       <c r="O25" s="8" t="e">
         <v>#REF!</v>
@@ -2814,43 +2817,43 @@
         <v>21</v>
       </c>
       <c r="B26" s="8">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="C26" s="8">
         <v>4.12</v>
       </c>
-      <c r="C26" s="8">
+      <c r="D26" s="8">
         <v>2.44</v>
       </c>
-      <c r="D26" s="8">
+      <c r="E26" s="8">
         <v>1.51</v>
       </c>
-      <c r="E26" s="8">
+      <c r="F26" s="8">
         <v>1.47</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <v>0.94</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H26" s="8">
         <v>1.22</v>
       </c>
-      <c r="H26" s="8">
+      <c r="I26" s="8">
         <v>1.24</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <v>0.77</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>1.8</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L26" s="8">
+      <c r="M26" s="8">
         <v>1.59</v>
       </c>
-      <c r="M26" s="8" t="e">
+      <c r="N26" s="8" t="e">
         <v>#VALUE!</v>
-      </c>
-      <c r="N26" s="8">
-        <v>0</v>
       </c>
       <c r="O26" s="8" t="e">
         <v>#REF!</v>
@@ -2906,43 +2909,43 @@
         <v>22</v>
       </c>
       <c r="B27" s="8">
+        <v>357.65</v>
+      </c>
+      <c r="C27" s="8">
         <v>318.99</v>
       </c>
-      <c r="C27" s="8">
+      <c r="D27" s="8">
         <v>201.95</v>
       </c>
-      <c r="D27" s="8">
+      <c r="E27" s="8">
         <v>124.62</v>
       </c>
-      <c r="E27" s="8">
+      <c r="F27" s="8">
         <v>101.97</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="8">
         <v>80.23</v>
       </c>
-      <c r="G27" s="8">
+      <c r="H27" s="8">
         <v>90.15</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="8">
         <v>70.58</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="8">
         <v>64.84</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>53.94</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <v>28.34</v>
       </c>
-      <c r="L27" s="8">
+      <c r="M27" s="8">
         <v>20.98</v>
       </c>
-      <c r="M27" s="8">
+      <c r="N27" s="8">
         <v>10.029999999999999</v>
-      </c>
-      <c r="N27" s="8">
-        <v>5.03</v>
       </c>
       <c r="O27" s="8" t="e">
         <v>#REF!</v>
@@ -2998,43 +3001,43 @@
         <v>23</v>
       </c>
       <c r="B28" s="8">
+        <v>193.51</v>
+      </c>
+      <c r="C28" s="8">
         <v>201.06</v>
       </c>
-      <c r="C28" s="8">
+      <c r="D28" s="8">
         <v>193.55</v>
       </c>
-      <c r="D28" s="8">
+      <c r="E28" s="8">
         <v>199.95</v>
       </c>
-      <c r="E28" s="8">
+      <c r="F28" s="8">
         <v>191.99</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G28" s="8">
         <v>122.28</v>
       </c>
-      <c r="G28" s="8">
+      <c r="H28" s="8">
         <v>64.38</v>
       </c>
-      <c r="H28" s="8">
+      <c r="I28" s="8">
         <v>59.1</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <v>44.17</v>
       </c>
-      <c r="J28" s="8">
+      <c r="K28" s="8">
         <v>40.69</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>38.53</v>
       </c>
-      <c r="L28" s="8">
+      <c r="M28" s="8">
         <v>10.55</v>
       </c>
-      <c r="M28" s="8">
+      <c r="N28" s="8">
         <v>8.09</v>
-      </c>
-      <c r="N28" s="8">
-        <v>4.2699999999999996</v>
       </c>
       <c r="O28" s="8" t="e">
         <v>#REF!</v>
@@ -3090,43 +3093,43 @@
         <v>24</v>
       </c>
       <c r="B29" s="8">
+        <v>203.93</v>
+      </c>
+      <c r="C29" s="8">
         <v>204.54</v>
       </c>
-      <c r="C29" s="8">
+      <c r="D29" s="8">
         <v>194.32</v>
       </c>
-      <c r="D29" s="8">
+      <c r="E29" s="8">
         <v>204.08</v>
       </c>
-      <c r="E29" s="8">
+      <c r="F29" s="8">
         <v>192.41</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="8">
         <v>122.81</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H29" s="8">
         <v>64.64</v>
       </c>
-      <c r="H29" s="8">
+      <c r="I29" s="8">
         <v>59.15</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="8">
         <v>44.22</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <v>40.729999999999997</v>
       </c>
-      <c r="K29" s="8">
+      <c r="L29" s="8">
         <v>38.57</v>
       </c>
-      <c r="L29" s="8">
+      <c r="M29" s="8">
         <v>10.7</v>
       </c>
-      <c r="M29" s="8">
+      <c r="N29" s="8">
         <v>8.2200000000000006</v>
-      </c>
-      <c r="N29" s="8">
-        <v>4.37</v>
       </c>
       <c r="O29" s="8" t="e">
         <v>#REF!</v>
@@ -3182,91 +3185,91 @@
         <v>25</v>
       </c>
       <c r="B31" s="8">
+        <v>53.19</v>
+      </c>
+      <c r="C31" s="8">
+        <v>38.99</v>
+      </c>
+      <c r="D31" s="8">
         <v>47.2</v>
       </c>
-      <c r="C31" s="8">
+      <c r="E31" s="8">
         <v>46.18</v>
       </c>
-      <c r="D31" s="8">
+      <c r="F31" s="8">
         <v>66.819999999999993</v>
       </c>
-      <c r="E31" s="8">
+      <c r="G31" s="8">
         <v>43.99</v>
       </c>
-      <c r="F31" s="8">
+      <c r="H31" s="8">
         <v>49.12</v>
       </c>
-      <c r="G31" s="8">
+      <c r="I31" s="8">
         <v>39.409999999999997</v>
       </c>
-      <c r="H31" s="8">
+      <c r="J31" s="8">
         <v>50.51</v>
       </c>
-      <c r="I31" s="8">
+      <c r="K31" s="8">
         <v>41.16</v>
       </c>
-      <c r="J31" s="8">
+      <c r="L31" s="8">
         <v>37.909999999999997</v>
       </c>
-      <c r="K31" s="8">
+      <c r="M31" s="8">
         <v>34.33</v>
       </c>
-      <c r="L31" s="8">
+      <c r="N31" s="8">
         <v>42.77</v>
       </c>
-      <c r="M31" s="8">
+      <c r="O31" s="8">
         <v>34.119999999999997</v>
       </c>
-      <c r="N31" s="8">
+      <c r="P31" s="8">
         <v>30.07</v>
       </c>
-      <c r="O31" s="8">
+      <c r="Q31" s="8">
         <v>25.95</v>
       </c>
-      <c r="P31" s="8">
+      <c r="R31" s="8">
         <v>31.94</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="S31" s="8">
         <v>25.23</v>
       </c>
-      <c r="R31" s="8">
+      <c r="T31" s="8">
         <v>24.6</v>
       </c>
-      <c r="S31" s="8">
+      <c r="U31" s="8">
         <v>22.1</v>
       </c>
-      <c r="T31" s="8">
+      <c r="V31" s="8">
         <v>27.47</v>
       </c>
-      <c r="U31" s="8">
+      <c r="W31" s="8">
         <v>21.67</v>
       </c>
-      <c r="V31" s="8">
+      <c r="X31" s="8">
         <v>20.51</v>
       </c>
-      <c r="W31" s="8">
+      <c r="Y31" s="8">
         <v>19.14</v>
       </c>
-      <c r="X31" s="8">
+      <c r="Z31" s="8">
         <v>22.27</v>
       </c>
-      <c r="Y31" s="8">
+      <c r="AA31" s="8">
         <v>20.239999999999998</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="AB31" s="8">
         <v>17.55</v>
       </c>
-      <c r="AA31" s="8">
+      <c r="AC31" s="8">
         <v>16.34</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AD31" s="8">
         <v>18.059999999999999</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>16.16</v>
-      </c>
-      <c r="AD31" s="8">
-        <v>14.55</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -3274,91 +3277,91 @@
         <v>26</v>
       </c>
       <c r="B32" s="8">
+        <v>6.87</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-2.7</v>
+      </c>
+      <c r="D32" s="8">
         <v>4.7</v>
       </c>
-      <c r="C32" s="8">
+      <c r="E32" s="8">
         <v>3.92</v>
       </c>
-      <c r="D32" s="8">
+      <c r="F32" s="8">
         <v>34.68</v>
       </c>
-      <c r="E32" s="8">
+      <c r="G32" s="8">
         <v>-28.59</v>
       </c>
-      <c r="F32" s="8">
+      <c r="H32" s="8">
         <v>-6.02</v>
       </c>
-      <c r="G32" s="8">
+      <c r="I32" s="8">
         <v>-2.23</v>
       </c>
-      <c r="H32" s="8">
+      <c r="J32" s="8">
         <v>10.02</v>
       </c>
-      <c r="I32" s="8">
+      <c r="K32" s="8">
         <v>-14.03</v>
       </c>
-      <c r="J32" s="8">
+      <c r="L32" s="8">
         <v>2.0699999999999998</v>
       </c>
-      <c r="K32" s="8">
+      <c r="M32" s="8">
         <v>-6.83</v>
       </c>
-      <c r="L32" s="8">
+      <c r="N32" s="8">
         <v>6.16</v>
       </c>
-      <c r="M32" s="8">
+      <c r="O32" s="8">
         <v>-10.58</v>
       </c>
-      <c r="N32" s="8">
+      <c r="P32" s="8">
         <v>4.55</v>
       </c>
-      <c r="O32" s="8">
+      <c r="Q32" s="8">
         <v>5.2</v>
       </c>
-      <c r="P32" s="8">
+      <c r="R32" s="8">
         <v>4.79</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="S32" s="8">
         <v>-8.65</v>
       </c>
-      <c r="R32" s="8">
+      <c r="T32" s="8">
         <v>9.07</v>
       </c>
-      <c r="S32" s="8">
+      <c r="U32" s="8">
         <v>-5.48</v>
       </c>
-      <c r="T32" s="8">
+      <c r="V32" s="8">
         <v>9.98</v>
       </c>
-      <c r="U32" s="8">
+      <c r="W32" s="8">
         <v>-6.64</v>
       </c>
-      <c r="V32" s="8">
+      <c r="X32" s="8">
         <v>4.8600000000000003</v>
       </c>
-      <c r="W32" s="8">
+      <c r="Y32" s="8">
         <v>-4.24</v>
       </c>
-      <c r="X32" s="8">
+      <c r="Z32" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="AA32" s="8">
         <v>1.8</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="AB32" s="8">
         <v>4.21</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AC32" s="8">
         <v>-4.4400000000000004</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AD32" s="8">
         <v>6.62</v>
-      </c>
-      <c r="AC32" s="8">
-        <v>-3.33</v>
-      </c>
-      <c r="AD32" s="8">
-        <v>2.6</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
@@ -3379,91 +3382,91 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>-0.02</v>
+      </c>
+      <c r="D36" s="10">
         <v>0.02</v>
       </c>
-      <c r="C36" s="10">
+      <c r="E36" s="10">
         <v>0.02</v>
       </c>
-      <c r="D36" s="10">
+      <c r="F36" s="10">
         <v>0.17</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="10">
+      <c r="H36" s="10">
         <v>0.02</v>
       </c>
-      <c r="G36" s="10">
+      <c r="I36" s="10">
         <v>0.02</v>
       </c>
-      <c r="H36" s="10">
+      <c r="J36" s="10">
         <v>0.12</v>
       </c>
-      <c r="I36" s="10">
+      <c r="K36" s="10">
         <v>0.04</v>
       </c>
-      <c r="J36" s="10">
+      <c r="L36" s="10">
         <v>0.01</v>
       </c>
-      <c r="K36" s="10">
+      <c r="M36" s="10">
         <v>0.02</v>
       </c>
-      <c r="L36" s="10">
+      <c r="N36" s="10">
         <v>0.08</v>
       </c>
-      <c r="M36" s="10">
+      <c r="O36" s="10">
         <v>0.04</v>
       </c>
-      <c r="N36" s="10">
+      <c r="P36" s="10">
         <v>0.04</v>
       </c>
-      <c r="O36" s="10">
+      <c r="Q36" s="10">
         <v>0.03</v>
       </c>
-      <c r="P36" s="10">
+      <c r="R36" s="10">
         <v>0.08</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="S36" s="10">
         <v>0.04</v>
       </c>
-      <c r="R36" s="10">
+      <c r="T36" s="10">
         <v>0.02</v>
       </c>
-      <c r="S36" s="10">
+      <c r="U36" s="10">
         <v>0.02</v>
       </c>
-      <c r="T36" s="10">
+      <c r="V36" s="10">
         <v>0.06</v>
       </c>
-      <c r="U36" s="10" t="s">
+      <c r="W36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V36" s="10">
+      <c r="X36" s="10">
         <v>0.01</v>
       </c>
-      <c r="W36" s="10">
+      <c r="Y36" s="10">
         <v>-0.04</v>
       </c>
-      <c r="X36" s="10">
+      <c r="Z36" s="10">
         <v>0.11</v>
       </c>
-      <c r="Y36" s="10">
+      <c r="AA36" s="10">
         <v>0.06</v>
       </c>
-      <c r="Z36" s="10">
+      <c r="AB36" s="10">
         <v>0.06</v>
-      </c>
-      <c r="AA36" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AB36" s="10">
-        <v>0.09</v>
       </c>
       <c r="AC36" s="10">
         <v>0.05</v>
       </c>
       <c r="AD36" s="10">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
@@ -3471,91 +3474,91 @@
         <v>30</v>
       </c>
       <c r="B37" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="D37" s="10">
         <v>1.02</v>
       </c>
-      <c r="C37" s="10">
+      <c r="E37" s="10">
         <v>1.02</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1.03</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.99</v>
       </c>
       <c r="F37" s="10">
         <v>1.03</v>
       </c>
       <c r="G37" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="I37" s="10">
         <v>1.01</v>
       </c>
-      <c r="H37" s="10">
+      <c r="J37" s="10">
         <v>1.08</v>
       </c>
-      <c r="I37" s="10">
+      <c r="K37" s="10">
         <v>1.2</v>
       </c>
-      <c r="J37" s="10">
+      <c r="L37" s="10">
         <v>1.25</v>
       </c>
-      <c r="K37" s="10">
+      <c r="M37" s="10">
         <v>1.43</v>
       </c>
-      <c r="L37" s="10">
+      <c r="N37" s="10">
         <v>1.47</v>
       </c>
-      <c r="M37" s="10">
+      <c r="O37" s="10">
         <v>1.65</v>
       </c>
-      <c r="N37" s="10">
+      <c r="P37" s="10">
         <v>1.94</v>
       </c>
-      <c r="O37" s="10">
+      <c r="Q37" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="P37" s="10">
+      <c r="R37" s="10">
         <v>2.12</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="S37" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="R37" s="10">
+      <c r="T37" s="10">
         <v>2.15</v>
       </c>
-      <c r="S37" s="10">
+      <c r="U37" s="10">
         <v>1.51</v>
       </c>
-      <c r="T37" s="10">
+      <c r="V37" s="10">
         <v>1.55</v>
       </c>
-      <c r="U37" s="10">
+      <c r="W37" s="10">
         <v>1.5</v>
       </c>
-      <c r="V37" s="10">
+      <c r="X37" s="10">
         <v>1.49</v>
       </c>
-      <c r="W37" s="10">
+      <c r="Y37" s="10">
         <v>1.67</v>
       </c>
-      <c r="X37" s="10">
+      <c r="Z37" s="10">
         <v>1.57</v>
       </c>
-      <c r="Y37" s="10">
+      <c r="AA37" s="10">
         <v>0.93</v>
       </c>
-      <c r="Z37" s="10">
+      <c r="AB37" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA37" s="10">
+      <c r="AC37" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB37" s="10">
+      <c r="AD37" s="10">
         <v>1.1100000000000001</v>
-      </c>
-      <c r="AC37" s="10">
-        <v>1.08</v>
-      </c>
-      <c r="AD37" s="10">
-        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
@@ -3563,91 +3566,91 @@
         <v>31</v>
       </c>
       <c r="B38" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="D38" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C38" s="10">
+      <c r="E38" s="10">
         <v>0.62</v>
       </c>
-      <c r="D38" s="10">
+      <c r="F38" s="10">
         <v>0.62</v>
       </c>
-      <c r="E38" s="10">
+      <c r="G38" s="10">
         <v>0.46</v>
       </c>
-      <c r="F38" s="10">
+      <c r="H38" s="10">
         <v>0.52</v>
       </c>
-      <c r="G38" s="10">
+      <c r="I38" s="10">
         <v>0.54</v>
       </c>
-      <c r="H38" s="10">
+      <c r="J38" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I38" s="10">
+      <c r="K38" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J38" s="10">
+      <c r="L38" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K38" s="10">
+      <c r="M38" s="10">
         <v>0.59</v>
       </c>
-      <c r="L38" s="10">
+      <c r="N38" s="10">
         <v>0.67</v>
       </c>
-      <c r="M38" s="10">
+      <c r="O38" s="10">
         <v>0.7</v>
       </c>
-      <c r="N38" s="10">
+      <c r="P38" s="10">
         <v>0.86</v>
       </c>
-      <c r="O38" s="10">
+      <c r="Q38" s="10">
         <v>0.72</v>
       </c>
-      <c r="P38" s="10">
+      <c r="R38" s="10">
         <v>1.06</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="S38" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="R38" s="10">
+      <c r="T38" s="10">
         <v>1.4</v>
       </c>
-      <c r="S38" s="10">
+      <c r="U38" s="10">
         <v>0.82</v>
       </c>
-      <c r="T38" s="10">
+      <c r="V38" s="10">
         <v>0.78</v>
       </c>
-      <c r="U38" s="10">
+      <c r="W38" s="10">
         <v>0.66</v>
       </c>
-      <c r="V38" s="10">
+      <c r="X38" s="10">
         <v>0.87</v>
       </c>
-      <c r="W38" s="10">
+      <c r="Y38" s="10">
         <v>1.06</v>
       </c>
-      <c r="X38" s="10">
+      <c r="Z38" s="10">
         <v>1.04</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="AA38" s="10">
         <v>0.34</v>
       </c>
-      <c r="Z38" s="10">
+      <c r="AB38" s="10">
         <v>0.51</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AC38" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AB38" s="10">
+      <c r="AD38" s="10">
         <v>0.56000000000000005</v>
-      </c>
-      <c r="AC38" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="AD38" s="10">
-        <v>0.51</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
@@ -3655,91 +3658,91 @@
         <v>32</v>
       </c>
       <c r="B39" s="14">
+        <v>0.7984</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="D39" s="14">
         <v>0.58909999999999996</v>
       </c>
-      <c r="C39" s="14">
+      <c r="E39" s="14">
         <v>0.58079999999999998</v>
       </c>
-      <c r="D39" s="14">
+      <c r="F39" s="14">
         <v>0.58020000000000005</v>
       </c>
-      <c r="E39" s="14">
+      <c r="G39" s="14">
         <v>0.60929999999999995</v>
       </c>
-      <c r="F39" s="14">
+      <c r="H39" s="14">
         <v>0.54200000000000004</v>
       </c>
-      <c r="G39" s="14">
+      <c r="I39" s="14">
         <v>0.52710000000000001</v>
       </c>
-      <c r="H39" s="14">
+      <c r="J39" s="14">
         <v>0.49070000000000003</v>
       </c>
-      <c r="I39" s="14">
+      <c r="K39" s="14">
         <v>0.50960000000000005</v>
       </c>
-      <c r="J39" s="14">
+      <c r="L39" s="14">
         <v>0.48530000000000001</v>
       </c>
-      <c r="K39" s="14">
+      <c r="M39" s="14">
         <v>0.3911</v>
       </c>
-      <c r="L39" s="14">
+      <c r="N39" s="14">
         <v>0.39810000000000001</v>
       </c>
-      <c r="M39" s="14">
+      <c r="O39" s="14">
         <v>0.37909999999999999</v>
       </c>
-      <c r="N39" s="14">
+      <c r="P39" s="14">
         <v>0.34350000000000003</v>
       </c>
-      <c r="O39" s="14">
+      <c r="Q39" s="14">
         <v>0.33379999999999999</v>
       </c>
-      <c r="P39" s="14">
+      <c r="R39" s="14">
         <v>0.32669999999999999</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="S39" s="14">
         <v>0.34639999999999999</v>
       </c>
-      <c r="R39" s="14">
+      <c r="T39" s="14">
         <v>0.32800000000000001</v>
       </c>
-      <c r="S39" s="14">
+      <c r="U39" s="14">
         <v>0.38550000000000001</v>
       </c>
-      <c r="T39" s="14">
+      <c r="V39" s="14">
         <v>0.38819999999999999</v>
       </c>
-      <c r="U39" s="14">
+      <c r="W39" s="14">
         <v>0.39510000000000001</v>
       </c>
-      <c r="V39" s="14">
+      <c r="X39" s="14">
         <v>0.41149999999999998</v>
       </c>
-      <c r="W39" s="14">
+      <c r="Y39" s="14">
         <v>0.38200000000000001</v>
       </c>
-      <c r="X39" s="14">
+      <c r="Z39" s="14">
         <v>0.41249999999999998</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="AA39" s="14">
         <v>0.58240000000000003</v>
       </c>
-      <c r="Z39" s="14">
+      <c r="AB39" s="14">
         <v>0.54890000000000005</v>
       </c>
-      <c r="AA39" s="14">
+      <c r="AC39" s="14">
         <v>0.54179999999999995</v>
       </c>
-      <c r="AB39" s="14">
+      <c r="AD39" s="14">
         <v>0.53800000000000003</v>
-      </c>
-      <c r="AC39" s="14">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="AD39" s="14">
-        <v>0.5252</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -3747,10 +3750,10 @@
         <v>33</v>
       </c>
       <c r="B40" s="14">
-        <v>2.9855022634806033E-2</v>
+        <v>3.6468535204245166E-2</v>
       </c>
       <c r="C40" s="14">
-        <v>3.7373507961743262E-2</v>
+        <v>3.6597711687964399E-2</v>
       </c>
       <c r="D40" s="10" t="e">
         <v>#N/A</v>
@@ -3839,91 +3842,91 @@
         <v>34</v>
       </c>
       <c r="B41" s="14">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C41" s="14">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="D41" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="C41" s="14">
+      <c r="E41" s="14">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D41" s="14">
+      <c r="F41" s="14">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="E41" s="14">
+      <c r="G41" s="14">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="F41" s="14">
+      <c r="H41" s="14">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="G41" s="14">
+      <c r="I41" s="14">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="H41" s="14">
+      <c r="J41" s="14">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="I41" s="14">
+      <c r="K41" s="14">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="J41" s="14">
+      <c r="L41" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K41" s="14">
+      <c r="M41" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="L41" s="14">
+      <c r="N41" s="14">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="M41" s="14">
+      <c r="O41" s="14">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="N41" s="14">
+      <c r="P41" s="14">
         <v>1.77E-2</v>
       </c>
-      <c r="O41" s="14">
+      <c r="Q41" s="14">
         <v>1.66E-2</v>
       </c>
-      <c r="P41" s="14">
+      <c r="R41" s="14">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="S41" s="14">
         <v>2.29E-2</v>
       </c>
-      <c r="R41" s="14">
+      <c r="T41" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="S41" s="14">
+      <c r="U41" s="14">
         <v>1.54E-2</v>
       </c>
-      <c r="T41" s="14">
+      <c r="V41" s="14">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="U41" s="14">
+      <c r="W41" s="14">
         <v>-1.5E-3</v>
       </c>
-      <c r="V41" s="14">
+      <c r="X41" s="14">
         <v>2.3E-3</v>
       </c>
-      <c r="W41" s="14">
+      <c r="Y41" s="14">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="X41" s="14">
+      <c r="Z41" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="Y41" s="14">
+      <c r="AA41" s="14">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="Z41" s="14">
+      <c r="AB41" s="14">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="AA41" s="14">
+      <c r="AC41" s="14">
         <v>2.47E-2</v>
       </c>
-      <c r="AB41" s="14">
+      <c r="AD41" s="14">
         <v>5.04E-2</v>
-      </c>
-      <c r="AC41" s="14">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="AD41" s="14">
-        <v>3.56E-2</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
@@ -3931,91 +3934,91 @@
         <v>35</v>
       </c>
       <c r="B42" s="14">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="D42" s="14">
         <v>0.21310000000000001</v>
       </c>
-      <c r="C42" s="14">
+      <c r="E42" s="14">
         <v>0.2172</v>
       </c>
-      <c r="D42" s="14">
+      <c r="F42" s="14">
         <v>0.22839999999999999</v>
       </c>
-      <c r="E42" s="14">
+      <c r="G42" s="14">
         <v>0.20619999999999999</v>
       </c>
-      <c r="F42" s="14">
+      <c r="H42" s="14">
         <v>0.21959999999999999</v>
       </c>
-      <c r="G42" s="14">
+      <c r="I42" s="14">
         <v>0.20810000000000001</v>
       </c>
-      <c r="H42" s="14">
+      <c r="J42" s="14">
         <v>0.2271</v>
       </c>
-      <c r="I42" s="14">
+      <c r="K42" s="14">
         <v>0.23089999999999999</v>
       </c>
-      <c r="J42" s="14">
+      <c r="L42" s="14">
         <v>0.2072</v>
       </c>
-      <c r="K42" s="14">
+      <c r="M42" s="14">
         <v>0.21970000000000001</v>
       </c>
-      <c r="L42" s="14">
+      <c r="N42" s="14">
         <v>0.22789999999999999</v>
       </c>
-      <c r="M42" s="14">
+      <c r="O42" s="14">
         <v>0.22320000000000001</v>
       </c>
-      <c r="N42" s="14">
+      <c r="P42" s="14">
         <v>0.2006</v>
       </c>
-      <c r="O42" s="14">
+      <c r="Q42" s="14">
         <v>0.1988</v>
       </c>
-      <c r="P42" s="14">
+      <c r="R42" s="14">
         <v>0.20930000000000001</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="S42" s="14">
         <v>0.20649999999999999</v>
       </c>
-      <c r="R42" s="14">
+      <c r="T42" s="14">
         <v>0.19689999999999999</v>
       </c>
-      <c r="S42" s="14">
+      <c r="U42" s="14">
         <v>0.19900000000000001</v>
       </c>
-      <c r="T42" s="14">
+      <c r="V42" s="14">
         <v>0.20480000000000001</v>
       </c>
-      <c r="U42" s="14">
+      <c r="W42" s="14">
         <v>0.20250000000000001</v>
       </c>
-      <c r="V42" s="14">
+      <c r="X42" s="14">
         <v>0.19339999999999999</v>
       </c>
-      <c r="W42" s="14">
+      <c r="Y42" s="14">
         <v>0.1986</v>
       </c>
-      <c r="X42" s="14">
+      <c r="Z42" s="14">
         <v>0.1988</v>
       </c>
-      <c r="Y42" s="14">
+      <c r="AA42" s="14">
         <v>0.20699999999999999</v>
       </c>
-      <c r="Z42" s="14">
+      <c r="AB42" s="14">
         <v>0.18990000000000001</v>
       </c>
-      <c r="AA42" s="14">
+      <c r="AC42" s="14">
         <v>0.19539999999999999</v>
       </c>
-      <c r="AB42" s="14">
+      <c r="AD42" s="14">
         <v>0.19339999999999999</v>
-      </c>
-      <c r="AC42" s="14">
-        <v>0.1895</v>
-      </c>
-      <c r="AD42" s="14">
-        <v>0.1915</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
@@ -4023,91 +4026,91 @@
         <v>36</v>
       </c>
       <c r="B43" s="14">
+        <v>-6.3036378825852514E-3</v>
+      </c>
+      <c r="C43" s="14">
+        <v>-5.017292610453505E-3</v>
+      </c>
+      <c r="D43" s="14">
         <v>8.6666064818994304E-3</v>
       </c>
-      <c r="C43" s="14">
+      <c r="E43" s="14">
         <v>1.3359047932640292E-2</v>
       </c>
-      <c r="D43" s="14">
+      <c r="F43" s="14">
         <v>6.5351881600984388E-2</v>
       </c>
-      <c r="E43" s="14">
+      <c r="G43" s="14">
         <v>-1.1249648448485984E-3</v>
       </c>
-      <c r="F43" s="14">
+      <c r="H43" s="14">
         <v>8.047570080922788E-3</v>
       </c>
-      <c r="G43" s="14">
+      <c r="I43" s="14">
         <v>8.3421330517423446E-3</v>
       </c>
-      <c r="H43" s="14">
+      <c r="J43" s="14">
         <v>5.9588055405648495E-2</v>
       </c>
-      <c r="I43" s="14">
+      <c r="K43" s="14">
         <v>2.0253590664272889E-2</v>
       </c>
-      <c r="J43" s="14">
+      <c r="L43" s="14">
         <v>-1.9130910084722602E-3</v>
       </c>
-      <c r="K43" s="14">
+      <c r="M43" s="14">
         <v>7.5495841330774143E-3</v>
       </c>
-      <c r="L43" s="14">
+      <c r="N43" s="14">
         <v>4.3747002717536107E-2</v>
       </c>
-      <c r="M43" s="14">
+      <c r="O43" s="14">
         <v>2.6761761434273373E-2</v>
       </c>
-      <c r="N43" s="14">
+      <c r="P43" s="14">
         <v>2.1946501234073778E-2</v>
       </c>
-      <c r="O43" s="14">
+      <c r="Q43" s="14">
         <v>2.5277671390271924E-2</v>
       </c>
-      <c r="P43" s="14">
+      <c r="R43" s="14">
         <v>5.720463927658738E-2</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="S43" s="14">
         <v>3.8228552717747215E-2</v>
       </c>
-      <c r="R43" s="14">
+      <c r="T43" s="14">
         <v>1.5283668080339281E-2</v>
       </c>
-      <c r="S43" s="14">
+      <c r="U43" s="14">
         <v>2.1347504954062332E-2</v>
       </c>
-      <c r="T43" s="14">
+      <c r="V43" s="14">
         <v>4.1144901610017888E-2</v>
       </c>
-      <c r="U43" s="14">
+      <c r="W43" s="14">
         <v>7.9431828801046628E-3</v>
       </c>
-      <c r="V43" s="14">
+      <c r="X43" s="14">
         <v>8.3891035912904144E-3</v>
       </c>
-      <c r="W43" s="14">
+      <c r="Y43" s="14">
         <v>1.722527757600913E-2</v>
       </c>
-      <c r="X43" s="14">
+      <c r="Z43" s="14">
         <v>3.750669762457582E-2</v>
       </c>
-      <c r="Y43" s="14">
+      <c r="AA43" s="14">
         <v>2.3205888366387244E-2</v>
       </c>
-      <c r="Z43" s="14">
+      <c r="AB43" s="14">
         <v>2.813243886604631E-2</v>
       </c>
-      <c r="AA43" s="14">
+      <c r="AC43" s="14">
         <v>2.2357723577235773E-2</v>
       </c>
-      <c r="AB43" s="14">
+      <c r="AD43" s="14">
         <v>4.0796659171217477E-2</v>
-      </c>
-      <c r="AC43" s="14">
-        <v>2.4739125337085235E-2</v>
-      </c>
-      <c r="AD43" s="14">
-        <v>2.2497039863175895E-2</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
@@ -4115,91 +4118,91 @@
         <v>37</v>
       </c>
       <c r="B44" s="14">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1.77E-2</v>
+      </c>
+      <c r="D44" s="14">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="C44" s="14">
+      <c r="E44" s="14">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="D44" s="14">
+      <c r="F44" s="14">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="E44" s="14">
+      <c r="G44" s="14">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="F44" s="14">
+      <c r="H44" s="14">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="G44" s="14">
+      <c r="I44" s="14">
         <v>3.32E-2</v>
       </c>
-      <c r="H44" s="14">
+      <c r="J44" s="14">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="I44" s="14">
+      <c r="K44" s="14">
         <v>1.41E-2</v>
       </c>
-      <c r="J44" s="14">
+      <c r="L44" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="K44" s="14">
+      <c r="M44" s="14">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="L44" s="14">
+      <c r="N44" s="14">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="M44" s="14">
+      <c r="O44" s="14">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="N44" s="14">
+      <c r="P44" s="14">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="O44" s="14">
+      <c r="Q44" s="14">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="P44" s="14">
+      <c r="R44" s="14">
         <v>4.7600000000000003E-2</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="S44" s="14">
         <v>2.47E-2</v>
       </c>
-      <c r="R44" s="14">
+      <c r="T44" s="14">
         <v>2.18E-2</v>
       </c>
-      <c r="S44" s="14">
+      <c r="U44" s="14">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="T44" s="14">
+      <c r="V44" s="14">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="U44" s="14">
+      <c r="W44" s="14">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="V44" s="14">
+      <c r="X44" s="14">
         <v>1.89E-2</v>
       </c>
-      <c r="W44" s="14">
+      <c r="Y44" s="14">
         <v>2.53E-2</v>
       </c>
-      <c r="X44" s="14">
+      <c r="Z44" s="14">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Y44" s="14">
+      <c r="AA44" s="14">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="Z44" s="14">
+      <c r="AB44" s="14">
         <v>2.41E-2</v>
       </c>
-      <c r="AA44" s="14">
+      <c r="AC44" s="14">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="AB44" s="14">
+      <c r="AD44" s="14">
         <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="AC44" s="14">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="AD44" s="14">
-        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
@@ -4207,43 +4210,43 @@
         <v>38</v>
       </c>
       <c r="B45" s="14">
-        <v>3.2934226823768536E-2</v>
+        <v>4.121170435330869E-2</v>
       </c>
       <c r="C45" s="14">
-        <v>4.1100696706931984E-2</v>
+        <v>2.2231397084511067E-3</v>
       </c>
       <c r="D45" s="14">
-        <v>0.3422142799122736</v>
+        <v>5.197734449401032E-2</v>
       </c>
       <c r="E45" s="14">
-        <v>-0.18578963080903574</v>
+        <v>6.660709934205182E-2</v>
       </c>
       <c r="F45" s="14">
-        <v>3.5691764409131035E-2</v>
+        <v>0.41924569608916312</v>
       </c>
       <c r="G45" s="14">
-        <v>4.2955133250871469E-2</v>
+        <v>-0.23546474965317191</v>
       </c>
       <c r="H45" s="14">
-        <v>0.23334294779348139</v>
+        <v>3.1822781963341949E-2</v>
       </c>
       <c r="I45" s="14">
-        <v>-9.8470661672908855E-2</v>
+        <v>5.5090856648399189E-2</v>
       </c>
       <c r="J45" s="14">
-        <v>0.2079018028385117</v>
+        <v>0.25249687890137329</v>
       </c>
       <c r="K45" s="14">
-        <v>-8.1846392552366171E-2</v>
+        <v>-0.12102032988108936</v>
       </c>
       <c r="L45" s="14">
-        <v>0.78339350180505407</v>
+        <v>0.42048099301784325</v>
       </c>
       <c r="M45" s="14">
-        <v>-0.48155533399800604</v>
+        <v>-0.10881897885507993</v>
       </c>
       <c r="N45" s="14">
-        <v>1.0437375745526838</v>
+        <v>1.5144566301096711</v>
       </c>
       <c r="O45" s="14" t="e">
         <v>#REF!</v>
@@ -4299,91 +4302,91 @@
         <v>39</v>
       </c>
       <c r="B46" s="14">
+        <v>-9.9900000000000003E-2</v>
+      </c>
+      <c r="C46" s="14">
+        <v>-3.7699999999999997E-2</v>
+      </c>
+      <c r="D46" s="14">
         <v>-9.4999999999999998E-3</v>
       </c>
-      <c r="C46" s="14">
+      <c r="E46" s="14">
         <v>0.12239999999999999</v>
       </c>
-      <c r="D46" s="14">
+      <c r="F46" s="14">
         <v>0.31569999999999998</v>
       </c>
-      <c r="E46" s="14">
+      <c r="G46" s="14">
         <v>0.19689999999999999</v>
       </c>
-      <c r="F46" s="14">
+      <c r="H46" s="14">
         <v>0.22259999999999999</v>
       </c>
-      <c r="G46" s="14">
+      <c r="I46" s="14">
         <v>0.21179999999999999</v>
       </c>
-      <c r="H46" s="14">
+      <c r="J46" s="14">
         <v>0.18479999999999999</v>
       </c>
-      <c r="I46" s="14">
+      <c r="K46" s="14">
         <v>0.1663</v>
       </c>
-      <c r="J46" s="14">
+      <c r="L46" s="14">
         <v>0.22040000000000001</v>
       </c>
-      <c r="K46" s="14">
+      <c r="M46" s="14">
         <v>0.19719999999999999</v>
       </c>
-      <c r="L46" s="14">
+      <c r="N46" s="14">
         <v>0.22969999999999999</v>
       </c>
-      <c r="M46" s="14">
+      <c r="O46" s="14">
         <v>0.25109999999999999</v>
       </c>
-      <c r="N46" s="14">
+      <c r="P46" s="14">
         <v>0.19950000000000001</v>
       </c>
-      <c r="O46" s="14">
+      <c r="Q46" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="P46" s="14">
+      <c r="R46" s="14">
         <v>0.1376</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="S46" s="14">
         <v>0.1416</v>
       </c>
-      <c r="R46" s="14">
+      <c r="T46" s="14">
         <v>0.17799999999999999</v>
       </c>
-      <c r="S46" s="14">
+      <c r="U46" s="14">
         <v>0.152</v>
       </c>
-      <c r="T46" s="14">
+      <c r="V46" s="14">
         <v>0.1981</v>
       </c>
-      <c r="U46" s="14">
+      <c r="W46" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="V46" s="14">
+      <c r="X46" s="14">
         <v>0.14799999999999999</v>
       </c>
-      <c r="W46" s="14">
+      <c r="Y46" s="14">
         <v>0.1522</v>
       </c>
-      <c r="X46" s="14">
+      <c r="Z46" s="14">
         <v>0.19900000000000001</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="AA46" s="14">
         <v>0.1469</v>
       </c>
-      <c r="Z46" s="14">
+      <c r="AB46" s="14">
         <v>0.21590000000000001</v>
       </c>
-      <c r="AA46" s="14">
+      <c r="AC46" s="14">
         <v>0.22939999999999999</v>
       </c>
-      <c r="AB46" s="14">
+      <c r="AD46" s="14">
         <v>0.2273</v>
-      </c>
-      <c r="AC46" s="14">
-        <v>0.2555</v>
-      </c>
-      <c r="AD46" s="14">
-        <v>0.2301</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
@@ -4391,91 +4394,91 @@
         <v>40</v>
       </c>
       <c r="B47" s="14">
+        <v>-0.98509999999999998</v>
+      </c>
+      <c r="C47" s="14">
+        <v>-10.2121</v>
+      </c>
+      <c r="D47" s="14">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="C47" s="14">
+      <c r="E47" s="14">
         <v>0.1656</v>
       </c>
-      <c r="D47" s="14">
+      <c r="F47" s="14">
         <v>0.3947</v>
       </c>
-      <c r="E47" s="14">
+      <c r="G47" s="14">
         <v>-0.94510000000000005</v>
       </c>
-      <c r="F47" s="14">
+      <c r="H47" s="14">
         <v>1.0029999999999999</v>
       </c>
-      <c r="G47" s="14">
+      <c r="I47" s="14">
         <v>0.32250000000000001</v>
       </c>
-      <c r="H47" s="14">
+      <c r="J47" s="14">
         <v>0.50280000000000002</v>
       </c>
-      <c r="I47" s="14">
+      <c r="K47" s="14">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="J47" s="14">
+      <c r="L47" s="14">
         <v>-0.74980000000000002</v>
       </c>
-      <c r="K47" s="14">
+      <c r="M47" s="14">
         <v>-0.40410000000000001</v>
       </c>
-      <c r="L47" s="14">
+      <c r="N47" s="14">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M47" s="14">
+      <c r="O47" s="14">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="N47" s="14">
+      <c r="P47" s="14">
         <v>1.3125</v>
       </c>
-      <c r="O47" s="14">
+      <c r="Q47" s="14">
         <v>0.57620000000000005</v>
       </c>
-      <c r="P47" s="14">
+      <c r="R47" s="14">
         <v>0.57550000000000001</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="S47" s="14">
         <v>51.0426</v>
       </c>
-      <c r="R47" s="14">
+      <c r="T47" s="14">
         <v>1.0649</v>
       </c>
-      <c r="S47" s="14">
+      <c r="U47" s="14">
         <v>0.21460000000000001</v>
       </c>
-      <c r="T47" s="14">
+      <c r="V47" s="14">
         <v>0.29749999999999999</v>
       </c>
-      <c r="U47" s="14">
+      <c r="W47" s="14">
         <v>-0.95960000000000001</v>
       </c>
-      <c r="V47" s="14">
+      <c r="X47" s="14">
         <v>-0.64</v>
       </c>
-      <c r="W47" s="14">
+      <c r="Y47" s="14">
         <v>0.1061</v>
       </c>
-      <c r="X47" s="14">
+      <c r="Z47" s="14">
         <v>0.1903</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="AA47" s="14">
         <v>0.1875</v>
       </c>
-      <c r="Z47" s="14">
+      <c r="AB47" s="14">
         <v>0.21929999999999999</v>
       </c>
-      <c r="AA47" s="14">
+      <c r="AC47" s="14">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AB47" s="14">
+      <c r="AD47" s="14">
         <v>0.10780000000000001</v>
-      </c>
-      <c r="AC47" s="14">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="AD47" s="14">
-        <v>0.12230000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
@@ -4483,40 +4486,40 @@
         <v>41</v>
       </c>
       <c r="B48" s="8">
+        <v>-2.9823017502688238E-3</v>
+      </c>
+      <c r="C48" s="8">
         <v>5.2593659942363105E-2</v>
       </c>
-      <c r="C48" s="8">
+      <c r="D48" s="8">
         <v>-4.7824382595060853E-2</v>
       </c>
-      <c r="D48" s="8">
+      <c r="E48" s="8">
         <v>6.065173327789624E-2</v>
       </c>
-      <c r="E48" s="8">
+      <c r="F48" s="8">
         <v>0.56672909372200952</v>
       </c>
-      <c r="F48" s="8">
+      <c r="G48" s="8">
         <v>0.89990717821782185</v>
       </c>
-      <c r="G48" s="8">
+      <c r="H48" s="8">
         <v>9.281487743026208E-2</v>
       </c>
-      <c r="H48" s="8">
+      <c r="I48" s="8">
         <v>0.33763003165988242</v>
       </c>
-      <c r="I48" s="8">
+      <c r="J48" s="8">
         <v>8.5686226368770005E-2</v>
       </c>
-      <c r="J48" s="8">
+      <c r="K48" s="8">
         <v>5.6002074150894386E-2</v>
       </c>
-      <c r="K48" s="8">
+      <c r="L48" s="8">
         <v>2.604672897196262</v>
       </c>
-      <c r="L48" s="8">
+      <c r="M48" s="8">
         <v>0.30170316301703143</v>
-      </c>
-      <c r="M48" s="8">
-        <v>0.8810068649885584</v>
       </c>
       <c r="N48" s="8" t="e">
         <v>#REF!</v>
@@ -4578,43 +4581,43 @@
         <v>42</v>
       </c>
       <c r="B50" s="14">
+        <v>1.753788064531947</v>
+      </c>
+      <c r="C50" s="14">
         <v>1.5595482546201234</v>
       </c>
-      <c r="C50" s="14">
+      <c r="D50" s="14">
         <v>1.0392651296829971</v>
       </c>
-      <c r="D50" s="14">
+      <c r="E50" s="14">
         <v>0.61064288514308118</v>
       </c>
-      <c r="E50" s="14">
+      <c r="F50" s="14">
         <v>0.52996206018398218</v>
       </c>
-      <c r="F50" s="14">
+      <c r="G50" s="14">
         <v>0.65328556306489705</v>
       </c>
-      <c r="G50" s="14">
+      <c r="H50" s="14">
         <v>1.3946472772277227</v>
       </c>
-      <c r="H50" s="14">
+      <c r="I50" s="14">
         <v>1.1932375316990702</v>
       </c>
-      <c r="I50" s="14">
+      <c r="J50" s="14">
         <v>1.466304839439168</v>
       </c>
-      <c r="J50" s="14">
+      <c r="K50" s="14">
         <v>1.3243309599803585</v>
       </c>
-      <c r="K50" s="14">
+      <c r="L50" s="14">
         <v>0.73476795436868036</v>
       </c>
-      <c r="L50" s="14">
+      <c r="M50" s="14">
         <v>1.9607476635514021</v>
       </c>
-      <c r="M50" s="14">
+      <c r="N50" s="14">
         <v>1.2201946472019463</v>
-      </c>
-      <c r="N50" s="14">
-        <v>1.1510297482837528</v>
       </c>
       <c r="O50" s="10" t="e">
         <v>#N/A</v>
